--- a/Regression/templates/Product_Configs_Provar.xlsx
+++ b/Regression/templates/Product_Configs_Provar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="23520" windowHeight="10650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13335" windowHeight="5895" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ProductConfigs" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ProductConfigs!$A$1:$EX$124</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="315">
   <si>
     <t>Agency</t>
   </si>
@@ -3454,7 +3455,7 @@
       <c r="P3" s="26"/>
       <c r="Q3" s="28">
         <f ca="1">TODAY()</f>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R3" s="26"/>
       <c r="S3" s="26"/>
@@ -3712,7 +3713,7 @@
       <c r="P5" s="26"/>
       <c r="Q5" s="28">
         <f ca="1">TODAY()</f>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R5" s="26"/>
       <c r="S5" s="26"/>
@@ -3907,7 +3908,7 @@
       <c r="P6" s="26"/>
       <c r="Q6" s="28">
         <f t="shared" ref="Q6:Q96" ca="1" si="0">TODAY()</f>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R6" s="26"/>
       <c r="S6" s="26"/>
@@ -4116,7 +4117,7 @@
       <c r="P7" s="26"/>
       <c r="Q7" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R7" s="26"/>
       <c r="S7" s="26"/>
@@ -4342,7 +4343,7 @@
       <c r="P8" s="45"/>
       <c r="Q8" s="47">
         <f t="shared" ref="Q8:Q77" ca="1" si="1">TODAY()</f>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R8" s="45"/>
       <c r="S8" s="45"/>
@@ -4547,7 +4548,7 @@
       <c r="P9" s="26"/>
       <c r="Q9" s="28">
         <f t="shared" ref="Q9:Q118" ca="1" si="2">TODAY()</f>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R9" s="26"/>
       <c r="S9" s="26"/>
@@ -4712,7 +4713,7 @@
       <c r="P10" s="26"/>
       <c r="Q10" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R10" s="26"/>
       <c r="S10" s="26"/>
@@ -4877,7 +4878,7 @@
       <c r="P11" s="26"/>
       <c r="Q11" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R11" s="26"/>
       <c r="S11" s="26"/>
@@ -5044,7 +5045,7 @@
       <c r="P12" s="26"/>
       <c r="Q12" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R12" s="26"/>
       <c r="S12" s="26"/>
@@ -5225,7 +5226,7 @@
       <c r="P13" s="26"/>
       <c r="Q13" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R13" s="26"/>
       <c r="S13" s="26"/>
@@ -5456,7 +5457,7 @@
       <c r="P14" s="26"/>
       <c r="Q14" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R14" s="26"/>
       <c r="S14" s="26"/>
@@ -5686,7 +5687,7 @@
       <c r="P15" s="45"/>
       <c r="Q15" s="47">
         <f t="shared" ref="Q15:Q55" ca="1" si="3">TODAY()</f>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R15" s="45"/>
       <c r="S15" s="45"/>
@@ -5891,7 +5892,7 @@
       <c r="P16" s="26"/>
       <c r="Q16" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R16" s="26"/>
       <c r="S16" s="26"/>
@@ -6060,7 +6061,7 @@
       <c r="P17" s="26"/>
       <c r="Q17" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R17" s="26"/>
       <c r="S17" s="26"/>
@@ -6287,7 +6288,7 @@
       <c r="P18" s="26"/>
       <c r="Q18" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R18" s="26"/>
       <c r="S18" s="26"/>
@@ -6513,7 +6514,7 @@
       <c r="P19" s="45"/>
       <c r="Q19" s="47">
         <f t="shared" ca="1" si="3"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R19" s="45"/>
       <c r="S19" s="45"/>
@@ -6692,7 +6693,7 @@
       <c r="P20" s="26"/>
       <c r="Q20" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R20" s="26"/>
       <c r="S20" s="26"/>
@@ -6859,7 +6860,7 @@
       <c r="P21" s="26"/>
       <c r="Q21" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R21" s="26"/>
       <c r="S21" s="26"/>
@@ -7038,7 +7039,7 @@
       <c r="P22" s="26"/>
       <c r="Q22" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R22" s="26"/>
       <c r="S22" s="26"/>
@@ -7261,7 +7262,7 @@
       <c r="P23" s="26"/>
       <c r="Q23" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R23" s="26"/>
       <c r="S23" s="26"/>
@@ -7440,7 +7441,7 @@
       <c r="P24" s="26"/>
       <c r="Q24" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R24" s="26"/>
       <c r="S24" s="26"/>
@@ -7629,7 +7630,7 @@
       <c r="P25" s="26"/>
       <c r="Q25" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R25" s="26" t="s">
         <v>239</v>
@@ -7814,7 +7815,7 @@
       <c r="P26" s="26"/>
       <c r="Q26" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R26" s="26"/>
       <c r="S26" s="26"/>
@@ -7987,7 +7988,7 @@
       <c r="P27" s="26"/>
       <c r="Q27" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R27" s="26"/>
       <c r="S27" s="26"/>
@@ -8160,7 +8161,7 @@
       <c r="P28" s="26"/>
       <c r="Q28" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R28" s="26"/>
       <c r="S28" s="26"/>
@@ -8347,7 +8348,7 @@
       <c r="P29" s="26"/>
       <c r="Q29" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R29" s="26"/>
       <c r="S29" s="26"/>
@@ -8520,7 +8521,7 @@
       <c r="P30" s="26"/>
       <c r="Q30" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R30" s="26"/>
       <c r="S30" s="26"/>
@@ -8727,7 +8728,7 @@
       </c>
       <c r="Q31" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="U31" s="43" t="s">
         <v>6</v>
@@ -8814,7 +8815,7 @@
       </c>
       <c r="Q32" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="T32" s="42" t="s">
         <v>6</v>
@@ -8969,7 +8970,7 @@
       <c r="P33" s="26"/>
       <c r="Q33" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R33" s="26"/>
       <c r="S33" s="26"/>
@@ -9134,7 +9135,7 @@
       <c r="P34" s="26"/>
       <c r="Q34" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R34" s="26"/>
       <c r="S34" s="26"/>
@@ -9299,7 +9300,7 @@
       <c r="P35" s="26"/>
       <c r="Q35" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R35" s="26"/>
       <c r="S35" s="26"/>
@@ -9464,7 +9465,7 @@
       <c r="P36" s="26"/>
       <c r="Q36" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R36" s="26"/>
       <c r="S36" s="26"/>
@@ -9635,7 +9636,7 @@
       <c r="P37" s="26"/>
       <c r="Q37" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R37" s="26"/>
       <c r="S37" s="26"/>
@@ -9810,7 +9811,7 @@
       <c r="P38" s="26"/>
       <c r="Q38" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R38" s="26"/>
       <c r="S38" s="26"/>
@@ -9984,7 +9985,7 @@
       <c r="P39" s="45"/>
       <c r="Q39" s="47">
         <f t="shared" ca="1" si="3"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R39" s="45"/>
       <c r="S39" s="45"/>
@@ -10196,7 +10197,7 @@
       <c r="P40" s="45"/>
       <c r="Q40" s="47">
         <f t="shared" ca="1" si="3"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R40" s="45"/>
       <c r="S40" s="45"/>
@@ -10405,7 +10406,7 @@
       <c r="P41" s="26"/>
       <c r="Q41" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R41" s="26"/>
       <c r="S41" s="26"/>
@@ -10603,7 +10604,7 @@
       <c r="P42" s="45"/>
       <c r="Q42" s="47">
         <f t="shared" ca="1" si="3"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R42" s="45"/>
       <c r="S42" s="45"/>
@@ -10804,7 +10805,7 @@
       <c r="P43" s="26"/>
       <c r="Q43" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R43" s="26"/>
       <c r="S43" s="26"/>
@@ -10973,7 +10974,7 @@
       <c r="P44" s="26"/>
       <c r="Q44" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R44" s="26"/>
       <c r="S44" s="26"/>
@@ -11138,7 +11139,7 @@
       <c r="P45" s="26"/>
       <c r="Q45" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R45" s="26"/>
       <c r="S45" s="26"/>
@@ -11302,7 +11303,7 @@
       <c r="P46" s="45"/>
       <c r="Q46" s="47">
         <f t="shared" ca="1" si="3"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R46" s="45"/>
       <c r="S46" s="45"/>
@@ -11468,7 +11469,7 @@
       <c r="P47" s="45"/>
       <c r="Q47" s="47">
         <f t="shared" ca="1" si="3"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R47" s="45"/>
       <c r="S47" s="45"/>
@@ -11632,7 +11633,7 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
@@ -11834,7 +11835,7 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R49" s="1"/>
       <c r="S49" s="1"/>
@@ -12069,7 +12070,7 @@
       <c r="P50" s="33"/>
       <c r="Q50" s="52">
         <f t="shared" ca="1" si="3"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R50" s="33"/>
       <c r="S50" s="33"/>
@@ -12301,7 +12302,7 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
@@ -12517,7 +12518,7 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R52" s="1"/>
       <c r="S52" s="1"/>
@@ -12727,7 +12728,7 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R53" s="1"/>
       <c r="S53" s="1"/>
@@ -12937,7 +12938,7 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R54" s="1"/>
       <c r="S54" s="1"/>
@@ -13119,7 +13120,7 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="28">
         <f t="shared" ca="1" si="3"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R55" s="1"/>
       <c r="S55" s="1"/>
@@ -13303,7 +13304,7 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R56" s="1"/>
       <c r="S56" s="1"/>
@@ -13523,7 +13524,7 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R57" s="1"/>
       <c r="S57" s="1"/>
@@ -13755,7 +13756,7 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
@@ -13971,7 +13972,7 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R59" s="1"/>
       <c r="S59" s="1"/>
@@ -14159,7 +14160,7 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R60" s="1"/>
       <c r="S60" s="1"/>
@@ -14341,7 +14342,7 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R61" s="1"/>
       <c r="S61" s="1"/>
@@ -14537,7 +14538,7 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
@@ -14767,7 +14768,7 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R63" s="1"/>
       <c r="S63" s="1"/>
@@ -14997,7 +14998,7 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R64" s="1"/>
       <c r="S64" s="1"/>
@@ -15185,7 +15186,7 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R65" s="1"/>
       <c r="S65" s="1"/>
@@ -15373,7 +15374,7 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R66" s="1"/>
       <c r="S66" s="1"/>
@@ -15559,7 +15560,7 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
@@ -15739,7 +15740,7 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R68" s="1"/>
       <c r="S68" s="1"/>
@@ -15905,7 +15906,7 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
@@ -16072,7 +16073,7 @@
       <c r="P70" s="26"/>
       <c r="Q70" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R70" s="26"/>
       <c r="S70" s="26"/>
@@ -16243,7 +16244,7 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
@@ -16451,7 +16452,7 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R72" s="1"/>
       <c r="S72" s="1"/>
@@ -16623,7 +16624,7 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R73" s="1"/>
       <c r="S73" s="1"/>
@@ -16797,7 +16798,7 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R74" s="1"/>
       <c r="S74" s="1"/>
@@ -17007,7 +17008,7 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R75" s="1"/>
       <c r="S75" s="1"/>
@@ -17215,7 +17216,7 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R76" s="1"/>
       <c r="S76" s="1"/>
@@ -17421,7 +17422,7 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="28">
         <f t="shared" ca="1" si="1"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R77" s="1"/>
       <c r="S77" s="1"/>
@@ -17652,7 +17653,7 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R78" s="1"/>
       <c r="S78" s="1"/>
@@ -17865,7 +17866,7 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R79" s="1"/>
       <c r="S79" s="1"/>
@@ -18080,7 +18081,7 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
@@ -18297,7 +18298,7 @@
       <c r="P81" s="45"/>
       <c r="Q81" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R81" s="45"/>
       <c r="S81" s="45"/>
@@ -18503,7 +18504,7 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R82" s="1"/>
       <c r="S82" s="1"/>
@@ -18667,7 +18668,7 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R83" s="1"/>
       <c r="S83" s="1"/>
@@ -18831,7 +18832,7 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R84" s="1"/>
       <c r="S84" s="1"/>
@@ -18999,7 +19000,7 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
@@ -19225,7 +19226,7 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R86" s="1"/>
       <c r="S86" s="1"/>
@@ -19451,7 +19452,7 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R87" s="1"/>
       <c r="S87" s="1"/>
@@ -19661,7 +19662,7 @@
       <c r="P88" s="45"/>
       <c r="Q88" s="47">
         <f t="shared" ca="1" si="0"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R88" s="45"/>
       <c r="S88" s="45"/>
@@ -19867,7 +19868,7 @@
       <c r="P89" s="1"/>
       <c r="Q89" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R89" s="1"/>
       <c r="S89" s="1"/>
@@ -20073,7 +20074,7 @@
       <c r="P90" s="1"/>
       <c r="Q90" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R90" s="1"/>
       <c r="S90" s="1"/>
@@ -20269,7 +20270,7 @@
       <c r="P91" s="1"/>
       <c r="Q91" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R91" s="1"/>
       <c r="S91" s="1"/>
@@ -20495,7 +20496,7 @@
       <c r="P92" s="1"/>
       <c r="Q92" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R92" s="1"/>
       <c r="S92" s="1"/>
@@ -20721,7 +20722,7 @@
       <c r="P93" s="1"/>
       <c r="Q93" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R93" s="1"/>
       <c r="S93" s="1"/>
@@ -20943,7 +20944,7 @@
       <c r="P94" s="1"/>
       <c r="Q94" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R94" s="1"/>
       <c r="S94" s="1"/>
@@ -21109,7 +21110,7 @@
       <c r="P95" s="1"/>
       <c r="Q95" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R95" s="1"/>
       <c r="S95" s="1"/>
@@ -21275,7 +21276,7 @@
       <c r="P96" s="1"/>
       <c r="Q96" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R96" s="1"/>
       <c r="S96" s="1"/>
@@ -21600,7 +21601,7 @@
       <c r="P98" s="1"/>
       <c r="Q98" s="28">
         <f ca="1">TODAY()</f>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R98" s="1"/>
       <c r="S98" s="1"/>
@@ -21927,7 +21928,7 @@
       <c r="P100" s="1"/>
       <c r="Q100" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R100" s="1"/>
       <c r="S100" s="1"/>
@@ -22117,7 +22118,7 @@
       <c r="P101" s="1"/>
       <c r="Q101" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R101" s="1"/>
       <c r="S101" s="1"/>
@@ -22309,7 +22310,7 @@
       <c r="P102" s="1"/>
       <c r="Q102" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R102" s="1"/>
       <c r="S102" s="1"/>
@@ -22493,7 +22494,7 @@
       <c r="P103" s="1"/>
       <c r="Q103" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
@@ -22667,7 +22668,7 @@
       <c r="P104" s="1"/>
       <c r="Q104" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R104" s="1"/>
       <c r="S104" s="1"/>
@@ -22843,7 +22844,7 @@
       <c r="P105" s="1"/>
       <c r="Q105" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R105" s="1"/>
       <c r="S105" s="1"/>
@@ -23019,7 +23020,7 @@
       <c r="P106" s="1"/>
       <c r="Q106" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R106" s="1"/>
       <c r="S106" s="1"/>
@@ -23195,7 +23196,7 @@
       <c r="P107" s="1"/>
       <c r="Q107" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R107" s="1"/>
       <c r="S107" s="1"/>
@@ -23371,7 +23372,7 @@
       <c r="P108" s="1"/>
       <c r="Q108" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R108" s="1"/>
       <c r="S108" s="1"/>
@@ -23547,7 +23548,7 @@
       <c r="P109" s="1"/>
       <c r="Q109" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R109" s="1"/>
       <c r="S109" s="1"/>
@@ -23739,7 +23740,7 @@
       <c r="P110" s="1"/>
       <c r="Q110" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
@@ -23929,7 +23930,7 @@
       <c r="P111" s="1"/>
       <c r="Q111" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
@@ -24119,7 +24120,7 @@
       <c r="P112" s="1"/>
       <c r="Q112" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
@@ -24309,7 +24310,7 @@
       <c r="P113" s="1"/>
       <c r="Q113" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
@@ -24499,7 +24500,7 @@
       <c r="P114" s="1"/>
       <c r="Q114" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R114" s="1"/>
       <c r="S114" s="1"/>
@@ -24689,7 +24690,7 @@
       <c r="P115" s="1"/>
       <c r="Q115" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R115" s="1"/>
       <c r="S115" s="1"/>
@@ -24879,7 +24880,7 @@
       <c r="P116" s="1"/>
       <c r="Q116" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R116" s="1"/>
       <c r="S116" s="1"/>
@@ -25069,7 +25070,7 @@
       <c r="P117" s="1"/>
       <c r="Q117" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R117" s="1"/>
       <c r="S117" s="1"/>
@@ -25259,7 +25260,7 @@
       <c r="P118" s="1"/>
       <c r="Q118" s="28">
         <f t="shared" ca="1" si="2"/>
-        <v>42509</v>
+        <v>42524</v>
       </c>
       <c r="R118" s="1"/>
       <c r="S118" s="1"/>
@@ -52894,7 +52895,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52945,7 +52946,7 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="B2" s="41" t="s">
         <v>38</v>
@@ -52973,7 +52974,9 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
+      <c r="A3" s="41" t="s">
+        <v>38</v>
+      </c>
       <c r="B3" s="41"/>
       <c r="C3" s="41" t="s">
         <v>92</v>

--- a/Regression/templates/Product_Configs_Provar.xlsx
+++ b/Regression/templates/Product_Configs_Provar.xlsx
@@ -1085,9 +1085,6 @@
     <t>VehicleSorting</t>
   </si>
   <si>
-    <t>ArtworkPreApproveCase#</t>
-  </si>
-  <si>
     <t>FrontLineProModel</t>
   </si>
   <si>
@@ -1299,6 +1296,9 @@
   </si>
   <si>
     <t>o</t>
+  </si>
+  <si>
+    <t>ArtworkPreApproveCaseNo</t>
   </si>
 </sst>
 </file>
@@ -2943,8 +2943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:JC128"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="FB1" workbookViewId="0">
-      <selection activeCell="FJ1" sqref="FJ1:FQ1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="IE79" workbookViewId="0">
+      <selection activeCell="IG88" sqref="IG88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3169,7 +3169,7 @@
   <sheetData>
     <row r="1" spans="1:263" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>169</v>
@@ -3193,22 +3193,22 @@
         <v>137</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>355</v>
+        <v>426</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>173</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>174</v>
@@ -3217,7 +3217,7 @@
         <v>175</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>176</v>
@@ -3229,7 +3229,7 @@
         <v>178</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>179</v>
@@ -3238,7 +3238,7 @@
         <v>180</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>181</v>
@@ -3247,10 +3247,10 @@
         <v>182</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AC1" s="2" t="s">
         <v>1</v>
@@ -3292,10 +3292,10 @@
         <v>193</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AR1" s="2" t="s">
         <v>194</v>
@@ -3304,7 +3304,7 @@
         <v>195</v>
       </c>
       <c r="AT1" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AU1" s="2" t="s">
         <v>196</v>
@@ -3322,19 +3322,19 @@
         <v>200</v>
       </c>
       <c r="AZ1" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="BA1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="BB1" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BC1" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="BD1" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="BE1" s="2" t="s">
         <v>201</v>
@@ -3394,25 +3394,25 @@
         <v>219</v>
       </c>
       <c r="BX1" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="BY1" s="2" t="s">
         <v>220</v>
       </c>
       <c r="BZ1" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="CA1" s="2" t="s">
         <v>221</v>
       </c>
       <c r="CB1" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="CC1" s="2" t="s">
         <v>222</v>
       </c>
       <c r="CD1" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="CE1" s="2" t="s">
         <v>223</v>
@@ -3421,7 +3421,7 @@
         <v>224</v>
       </c>
       <c r="CG1" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="CH1" s="2" t="s">
         <v>225</v>
@@ -3439,7 +3439,7 @@
         <v>229</v>
       </c>
       <c r="CM1" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="CN1" s="2" t="s">
         <v>230</v>
@@ -3463,25 +3463,25 @@
         <v>236</v>
       </c>
       <c r="CU1" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="CV1" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="CW1" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="CX1" s="2" t="s">
         <v>237</v>
       </c>
       <c r="CY1" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="CZ1" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="DA1" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="DB1" s="2" t="s">
         <v>4</v>
@@ -3490,10 +3490,10 @@
         <v>238</v>
       </c>
       <c r="DD1" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="DE1" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="DE1" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="DF1" s="2" t="s">
         <v>239</v>
@@ -3508,7 +3508,7 @@
         <v>241</v>
       </c>
       <c r="DJ1" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="DK1" s="2" t="s">
         <v>242</v>
@@ -3520,7 +3520,7 @@
         <v>244</v>
       </c>
       <c r="DN1" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="DO1" s="2" t="s">
         <v>245</v>
@@ -3532,7 +3532,7 @@
         <v>247</v>
       </c>
       <c r="DR1" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="DS1" s="2" t="s">
         <v>248</v>
@@ -3544,7 +3544,7 @@
         <v>250</v>
       </c>
       <c r="DV1" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="DW1" s="2" t="s">
         <v>251</v>
@@ -3664,31 +3664,31 @@
         <v>289</v>
       </c>
       <c r="FJ1" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="FK1" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="FL1" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="FL1" s="13" t="s">
+      <c r="FM1" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="FM1" s="13" t="s">
+      <c r="FN1" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="FN1" s="13" t="s">
+      <c r="FO1" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="FO1" s="13" t="s">
+      <c r="FP1" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="FP1" s="13" t="s">
+      <c r="FQ1" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="FQ1" s="13" t="s">
-        <v>425</v>
-      </c>
       <c r="FR1" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="FS1" s="2" t="s">
         <v>5</v>
@@ -3697,10 +3697,10 @@
         <v>290</v>
       </c>
       <c r="FU1" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="FV1" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="FV1" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="FW1" s="2" t="s">
         <v>291</v>
@@ -3730,10 +3730,10 @@
         <v>299</v>
       </c>
       <c r="GF1" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="GG1" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="GH1" s="2" t="s">
         <v>300</v>
@@ -3787,16 +3787,16 @@
         <v>316</v>
       </c>
       <c r="GY1" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="GZ1" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="HA1" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="HB1" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="HA1" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="HB1" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="HC1" s="2" t="s">
         <v>317</v>
@@ -3814,7 +3814,7 @@
         <v>321</v>
       </c>
       <c r="HH1" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="HI1" s="2" t="s">
         <v>322</v>
@@ -3829,13 +3829,13 @@
         <v>325</v>
       </c>
       <c r="HM1" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="HN1" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="HN1" s="2" t="s">
+      <c r="HO1" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="HO1" s="2" t="s">
-        <v>386</v>
       </c>
       <c r="HP1" s="13" t="s">
         <v>326</v>
@@ -3865,25 +3865,25 @@
         <v>334</v>
       </c>
       <c r="HY1" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="HZ1" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="IA1" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="IB1" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="IC1" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="ID1" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="IE1" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="HZ1" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="IA1" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="IB1" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="IC1" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="ID1" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="IE1" s="2" t="s">
-        <v>393</v>
       </c>
       <c r="IF1" s="2" t="s">
         <v>335</v>
@@ -3901,7 +3901,7 @@
         <v>339</v>
       </c>
       <c r="IK1" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="IL1" s="2" t="s">
         <v>340</v>
@@ -3931,10 +3931,10 @@
         <v>348</v>
       </c>
       <c r="IU1" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="IV1" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="IW1" s="2" t="s">
         <v>349</v>
@@ -3968,7 +3968,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="4">
         <f t="shared" ref="F2:F33" ca="1" si="0">TODAY()</f>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -4242,7 +4242,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -4516,7 +4516,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -4790,7 +4790,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -5066,7 +5066,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
@@ -5364,7 +5364,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -5650,7 +5650,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -5946,7 +5946,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -6236,7 +6236,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -6281,7 +6281,7 @@
         <v>144</v>
       </c>
       <c r="AI10" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
@@ -6572,7 +6572,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -6617,7 +6617,7 @@
         <v>144</v>
       </c>
       <c r="AI11" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ11" s="3"/>
       <c r="AK11" s="3"/>
@@ -6910,7 +6910,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -6955,7 +6955,7 @@
         <v>144</v>
       </c>
       <c r="AI12" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ12" s="3"/>
       <c r="AK12" s="3"/>
@@ -7248,7 +7248,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -7570,7 +7570,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -7896,7 +7896,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -8218,7 +8218,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -8273,7 +8273,7 @@
         <v>144</v>
       </c>
       <c r="AI16" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ16" s="3"/>
       <c r="AK16" s="3"/>
@@ -8618,7 +8618,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -8673,7 +8673,7 @@
         <v>144</v>
       </c>
       <c r="AI17" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ17" s="3"/>
       <c r="AK17" s="3"/>
@@ -9020,7 +9020,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
@@ -9075,7 +9075,7 @@
         <v>144</v>
       </c>
       <c r="AI18" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ18" s="3"/>
       <c r="AK18" s="3"/>
@@ -9422,7 +9422,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -9477,7 +9477,7 @@
         <v>144</v>
       </c>
       <c r="AI19" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ19" s="3"/>
       <c r="AK19" s="3"/>
@@ -9824,7 +9824,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -9879,7 +9879,7 @@
         <v>144</v>
       </c>
       <c r="AI20" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ20" s="3"/>
       <c r="AK20" s="3"/>
@@ -10226,7 +10226,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
@@ -10259,7 +10259,7 @@
         <v>144</v>
       </c>
       <c r="AI21" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ21" s="3"/>
       <c r="AK21" s="3"/>
@@ -10552,7 +10552,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -10585,7 +10585,7 @@
         <v>144</v>
       </c>
       <c r="AI22" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ22" s="3"/>
       <c r="AK22" s="3"/>
@@ -10878,7 +10878,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -11160,7 +11160,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -11434,7 +11434,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -11708,7 +11708,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -11984,7 +11984,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -12258,7 +12258,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -12570,7 +12570,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
@@ -12868,7 +12868,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
@@ -13166,7 +13166,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
@@ -13213,7 +13213,7 @@
         <v>144</v>
       </c>
       <c r="AI31" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ31" s="3"/>
       <c r="AK31" s="3"/>
@@ -13510,7 +13510,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -13557,7 +13557,7 @@
         <v>144</v>
       </c>
       <c r="AI32" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ32" s="3"/>
       <c r="AK32" s="3"/>
@@ -13854,7 +13854,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -13895,7 +13895,7 @@
         <v>144</v>
       </c>
       <c r="AI33" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ33" s="3"/>
       <c r="AK33" s="3"/>
@@ -14178,7 +14178,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="4">
         <f t="shared" ref="F34:F65" ca="1" si="1">TODAY()</f>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -14498,7 +14498,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -14822,7 +14822,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -15144,7 +15144,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -15436,7 +15436,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -15728,7 +15728,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -15775,7 +15775,7 @@
         <v>144</v>
       </c>
       <c r="AI39" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ39" s="3"/>
       <c r="AK39" s="3"/>
@@ -16076,7 +16076,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -16123,7 +16123,7 @@
         <v>144</v>
       </c>
       <c r="AI40" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ40" s="3"/>
       <c r="AK40" s="3"/>
@@ -16442,7 +16442,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -16489,7 +16489,7 @@
         <v>144</v>
       </c>
       <c r="AI41" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ41" s="3"/>
       <c r="AK41" s="3"/>
@@ -16808,7 +16808,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -16863,7 +16863,7 @@
         <v>144</v>
       </c>
       <c r="AI42" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ42" s="3"/>
       <c r="AK42" s="3"/>
@@ -17232,7 +17232,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -17526,7 +17526,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -17856,7 +17856,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -18152,7 +18152,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -18444,7 +18444,7 @@
       <c r="E47" s="3"/>
       <c r="F47" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -18481,7 +18481,7 @@
         <v>144</v>
       </c>
       <c r="AI47" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ47" s="3"/>
       <c r="AK47" s="3"/>
@@ -18750,7 +18750,7 @@
       <c r="E48" s="3"/>
       <c r="F48" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -18797,7 +18797,7 @@
         <v>144</v>
       </c>
       <c r="AI48" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ48" s="3"/>
       <c r="AK48" s="3"/>
@@ -19116,7 +19116,7 @@
       <c r="E49" s="3"/>
       <c r="F49" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -19163,7 +19163,7 @@
         <v>144</v>
       </c>
       <c r="AI49" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ49" s="3"/>
       <c r="AK49" s="3"/>
@@ -19490,7 +19490,7 @@
       <c r="E50" s="3"/>
       <c r="F50" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -19537,7 +19537,7 @@
         <v>144</v>
       </c>
       <c r="AI50" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ50" s="3"/>
       <c r="AK50" s="3"/>
@@ -19858,7 +19858,7 @@
       <c r="E51" s="3"/>
       <c r="F51" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -20154,7 +20154,7 @@
       <c r="E52" s="3"/>
       <c r="F52" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -20450,7 +20450,7 @@
       <c r="E53" s="3"/>
       <c r="F53" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -20746,7 +20746,7 @@
       <c r="E54" s="3"/>
       <c r="F54" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
@@ -21040,7 +21040,7 @@
       <c r="E55" s="3"/>
       <c r="F55" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
@@ -21316,7 +21316,7 @@
       <c r="E56" s="3"/>
       <c r="F56" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
@@ -21596,7 +21596,7 @@
       <c r="E57" s="3"/>
       <c r="F57" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -21874,7 +21874,7 @@
       <c r="E58" s="3"/>
       <c r="F58" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -22156,7 +22156,7 @@
       <c r="E59" s="3"/>
       <c r="F59" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -22444,7 +22444,7 @@
       <c r="E60" s="3"/>
       <c r="F60" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -22768,7 +22768,7 @@
       <c r="E61" s="3"/>
       <c r="F61" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -23058,7 +23058,7 @@
       <c r="E62" s="3"/>
       <c r="F62" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -23336,7 +23336,7 @@
       <c r="E63" s="3"/>
       <c r="F63" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -23620,7 +23620,7 @@
       <c r="E64" s="3"/>
       <c r="F64" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -23906,7 +23906,7 @@
       <c r="E65" s="3"/>
       <c r="F65" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
@@ -24188,7 +24188,7 @@
       <c r="E66" s="3"/>
       <c r="F66" s="4">
         <f t="shared" ref="F66:F96" ca="1" si="2">TODAY()</f>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
@@ -24506,7 +24506,7 @@
       <c r="E67" s="3"/>
       <c r="F67" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
@@ -24828,7 +24828,7 @@
       <c r="E68" s="3"/>
       <c r="F68" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
@@ -25154,7 +25154,7 @@
       <c r="E69" s="3"/>
       <c r="F69" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -25476,7 +25476,7 @@
       <c r="E70" s="3"/>
       <c r="F70" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
@@ -25519,7 +25519,7 @@
         <v>144</v>
       </c>
       <c r="AI70" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ70" s="3"/>
       <c r="AK70" s="3"/>
@@ -25814,7 +25814,7 @@
       <c r="E71" s="3"/>
       <c r="F71" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
@@ -25857,7 +25857,7 @@
         <v>144</v>
       </c>
       <c r="AI71" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ71" s="3"/>
       <c r="AK71" s="3"/>
@@ -26154,7 +26154,7 @@
       <c r="E72" s="3"/>
       <c r="F72" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
@@ -26474,7 +26474,7 @@
       <c r="E73" s="3"/>
       <c r="F73" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
@@ -26796,7 +26796,7 @@
       <c r="E74" s="3"/>
       <c r="F74" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
@@ -27124,7 +27124,7 @@
       <c r="E75" s="3"/>
       <c r="F75" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
@@ -27452,7 +27452,7 @@
       <c r="E76" s="3"/>
       <c r="F76" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
@@ -27774,7 +27774,7 @@
       <c r="E77" s="3"/>
       <c r="F77" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
@@ -28098,7 +28098,7 @@
       <c r="E78" s="3"/>
       <c r="F78" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
@@ -28420,7 +28420,7 @@
       <c r="E79" s="3"/>
       <c r="F79" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
@@ -28694,7 +28694,7 @@
       <c r="E80" s="3"/>
       <c r="F80" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
@@ -28968,7 +28968,7 @@
       <c r="E81" s="3"/>
       <c r="F81" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
@@ -29242,7 +29242,7 @@
       <c r="E82" s="3"/>
       <c r="F82" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
@@ -29285,7 +29285,7 @@
         <v>144</v>
       </c>
       <c r="AI82" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ82" s="3"/>
       <c r="AK82" s="3"/>
@@ -29572,7 +29572,7 @@
       <c r="E83" s="3"/>
       <c r="F83" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
@@ -29615,7 +29615,7 @@
         <v>144</v>
       </c>
       <c r="AI83" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ83" s="3"/>
       <c r="AK83" s="3"/>
@@ -29904,7 +29904,7 @@
       <c r="E84" s="3"/>
       <c r="F84" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
@@ -29947,7 +29947,7 @@
         <v>144</v>
       </c>
       <c r="AI84" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ84" s="3"/>
       <c r="AK84" s="3"/>
@@ -30236,7 +30236,7 @@
       <c r="E85" s="3"/>
       <c r="F85" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" s="3"/>
@@ -30550,7 +30550,7 @@
       <c r="E86" s="3"/>
       <c r="F86" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" s="3"/>
@@ -30868,7 +30868,7 @@
       <c r="E87" s="3"/>
       <c r="F87" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
@@ -31182,7 +31182,7 @@
       <c r="E88" s="3"/>
       <c r="F88" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
@@ -31223,7 +31223,7 @@
         <v>144</v>
       </c>
       <c r="AI88" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ88" s="3"/>
       <c r="AK88" s="3"/>
@@ -31464,9 +31464,7 @@
       <c r="ID88" s="3"/>
       <c r="IE88" s="3"/>
       <c r="IF88" s="3"/>
-      <c r="IG88" s="14">
-        <v>0</v>
-      </c>
+      <c r="IG88" s="14"/>
       <c r="IH88" s="3"/>
       <c r="II88" s="3"/>
       <c r="IJ88" s="3"/>
@@ -31510,7 +31508,7 @@
       <c r="E89" s="3"/>
       <c r="F89" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
@@ -31551,7 +31549,7 @@
         <v>144</v>
       </c>
       <c r="AI89" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ89" s="3"/>
       <c r="AK89" s="3"/>
@@ -31816,7 +31814,7 @@
       <c r="E90" s="3"/>
       <c r="F90" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
@@ -31857,7 +31855,7 @@
         <v>144</v>
       </c>
       <c r="AI90" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ90" s="3"/>
       <c r="AK90" s="3"/>
@@ -32152,7 +32150,7 @@
       <c r="E91" s="3"/>
       <c r="F91" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
@@ -32193,7 +32191,7 @@
         <v>144</v>
       </c>
       <c r="AI91" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ91" s="3"/>
       <c r="AK91" s="3"/>
@@ -32488,7 +32486,7 @@
       <c r="E92" s="3"/>
       <c r="F92" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
@@ -32529,7 +32527,7 @@
         <v>144</v>
       </c>
       <c r="AI92" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ92" s="3"/>
       <c r="AK92" s="3"/>
@@ -32824,7 +32822,7 @@
       <c r="E93" s="3"/>
       <c r="F93" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
@@ -32865,7 +32863,7 @@
         <v>144</v>
       </c>
       <c r="AI93" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ93" s="3"/>
       <c r="AK93" s="3"/>
@@ -33160,7 +33158,7 @@
       <c r="E94" s="3"/>
       <c r="F94" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
@@ -33436,7 +33434,7 @@
       <c r="E95" s="3"/>
       <c r="F95" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
@@ -33712,7 +33710,7 @@
       <c r="E96" s="3"/>
       <c r="F96" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
@@ -34257,7 +34255,7 @@
       <c r="E98" s="3"/>
       <c r="F98" s="4">
         <f ca="1">TODAY()</f>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
@@ -34802,7 +34800,7 @@
       <c r="E100" s="3"/>
       <c r="F100" s="4">
         <f t="shared" ref="F100:F128" ca="1" si="3">TODAY()</f>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
@@ -35102,7 +35100,7 @@
       <c r="E101" s="3"/>
       <c r="F101" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" s="3"/>
@@ -35402,7 +35400,7 @@
       <c r="E102" s="3"/>
       <c r="F102" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G102" s="3"/>
       <c r="H102" s="3"/>
@@ -35702,7 +35700,7 @@
       <c r="E103" s="3"/>
       <c r="F103" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -36000,7 +35998,7 @@
       <c r="E104" s="3"/>
       <c r="F104" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -36286,7 +36284,7 @@
       <c r="E105" s="3"/>
       <c r="F105" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -36572,7 +36570,7 @@
       <c r="E106" s="3"/>
       <c r="F106" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -36860,7 +36858,7 @@
       <c r="E107" s="3"/>
       <c r="F107" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -37148,7 +37146,7 @@
       <c r="E108" s="3"/>
       <c r="F108" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" s="3"/>
@@ -37436,7 +37434,7 @@
       <c r="E109" s="3"/>
       <c r="F109" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" s="3"/>
@@ -37724,7 +37722,7 @@
       <c r="E110" s="3"/>
       <c r="F110" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" s="3"/>
@@ -38010,7 +38008,7 @@
       <c r="E111" s="3"/>
       <c r="F111" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" s="3"/>
@@ -38312,7 +38310,7 @@
       <c r="E112" s="3"/>
       <c r="F112" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" s="3"/>
@@ -38614,7 +38612,7 @@
       <c r="E113" s="3"/>
       <c r="F113" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G113" s="3"/>
       <c r="H113" s="3"/>
@@ -38916,7 +38914,7 @@
       <c r="E114" s="3"/>
       <c r="F114" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
@@ -39218,7 +39216,7 @@
       <c r="E115" s="3"/>
       <c r="F115" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
@@ -39520,7 +39518,7 @@
       <c r="E116" s="3"/>
       <c r="F116" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" s="3"/>
@@ -39822,7 +39820,7 @@
       <c r="E117" s="3"/>
       <c r="F117" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
@@ -40124,7 +40122,7 @@
       <c r="E118" s="3"/>
       <c r="F118" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
@@ -40426,7 +40424,7 @@
       <c r="E119" s="3"/>
       <c r="F119" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
@@ -40728,7 +40726,7 @@
       <c r="E120" s="3"/>
       <c r="F120" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
@@ -41030,7 +41028,7 @@
       <c r="E121" s="3"/>
       <c r="F121" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
@@ -41077,7 +41075,7 @@
         <v>144</v>
       </c>
       <c r="AI121" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ121" s="3"/>
       <c r="AK121" s="3"/>
@@ -41380,7 +41378,7 @@
       <c r="E122" s="3"/>
       <c r="F122" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
@@ -41427,7 +41425,7 @@
         <v>144</v>
       </c>
       <c r="AI122" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ122" s="3"/>
       <c r="AK122" s="3"/>
@@ -41730,7 +41728,7 @@
       <c r="E123" s="3"/>
       <c r="F123" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
@@ -41777,7 +41775,7 @@
         <v>144</v>
       </c>
       <c r="AI123" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ123" s="3"/>
       <c r="AK123" s="3"/>
@@ -42080,7 +42078,7 @@
       <c r="E124" s="3"/>
       <c r="F124" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
@@ -42354,7 +42352,7 @@
       <c r="E125" s="3"/>
       <c r="F125" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" s="3"/>
@@ -42628,7 +42626,7 @@
       <c r="E126" s="3"/>
       <c r="F126" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
@@ -42902,7 +42900,7 @@
       <c r="E127" s="3"/>
       <c r="F127" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
@@ -43176,7 +43174,7 @@
       <c r="E128" s="3"/>
       <c r="F128" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>42551</v>
+        <v>42569</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
@@ -43456,7 +43454,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43475,51 +43473,49 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>398</v>
-      </c>
       <c r="C1" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>28</v>
-      </c>
+      <c r="B2" s="10"/>
       <c r="C2" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>68</v>
@@ -43545,12 +43541,14 @@
       <c r="A3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="C3" s="10" t="s">
         <v>43</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>22</v>
